--- a/data/trans_bre/LAWTONB_2R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Edad-trans_bre.xlsx
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 9,86</t>
+          <t>-1,9; 9,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 12,06</t>
+          <t>-0,05; 12,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 17,84</t>
+          <t>6,84; 17,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 6,95</t>
+          <t>-10,35; 7,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 77,43</t>
+          <t>-10,28; 73,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 103,91</t>
+          <t>-1,51; 101,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,68; 238,5</t>
+          <t>51,05; 230,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-67,32; 51,86</t>
+          <t>-63,01; 53,38</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 17,07</t>
+          <t>0,07; 17,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 21,78</t>
+          <t>4,26; 21,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,3; 19,83</t>
+          <t>5,32; 21,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,21; 27,1</t>
+          <t>16,31; 26,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 49,05</t>
+          <t>-0,56; 49,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 62,02</t>
+          <t>9,31; 60,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,51; 63,59</t>
+          <t>13,52; 66,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,58; 76,4</t>
+          <t>37,16; 76,11</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,83; 13,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,43</t>
+          <t>6,38; 17,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,09</t>
+          <t>9,65; 19,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 17,17</t>
+          <t>-7,8; 17,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>9,68; 57,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,23; 74,18</t>
+          <t>20,33; 71,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,71; 102,58</t>
+          <t>40,09; 104,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 68,81</t>
+          <t>-29,68; 71,28</t>
         </is>
       </c>
     </row>
